--- a/CooperativaAgricolaAlcobaca.xlsx
+++ b/CooperativaAgricolaAlcobaca.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Metadata" sheetId="1" r:id="rId1"/>
+    <sheet name="ENTITY" sheetId="1" r:id="rId1"/>
     <sheet name="ROC-SROC" sheetId="2" r:id="rId2"/>
     <sheet name="YEARINCOMESTATEMENT" sheetId="3" r:id="rId3"/>
-    <sheet name="YEARAPPLICATIONOFRESULTS" sheetId="4" r:id="rId4"/>
+    <sheet name="APPLICATIONOFRESULTS" sheetId="4" r:id="rId4"/>
     <sheet name="BOARD" sheetId="5" r:id="rId5"/>
     <sheet name="PARTICIPATION" sheetId="6" r:id="rId6"/>
     <sheet name="MEMBER" sheetId="7" r:id="rId7"/>
-    <sheet name="DEDUCTIONFOROTHER" sheetId="8" r:id="rId8"/>
+    <sheet name="ALLOCATIONOFRESERVES" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -31,26 +31,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="96">
   <si>
     <t>year</t>
   </si>
   <si>
-    <t>OrganisationName</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cooperativa Agrícola de Alcobaça </t>
   </si>
   <si>
-    <t>OrganisationURL</t>
-  </si>
-  <si>
     <t xml:space="preserve">http://www.coopalcobaca.pt </t>
   </si>
   <si>
-    <t>typeOfOrganisation</t>
-  </si>
-  <si>
     <t>Cooperativa</t>
   </si>
   <si>
@@ -75,48 +66,18 @@
     <t>resultsSurpluses</t>
   </si>
   <si>
-    <t>profitsThirdPartyResults</t>
-  </si>
-  <si>
-    <t>profitsExtraordinaryResults</t>
-  </si>
-  <si>
     <t>yearNetProfit</t>
   </si>
   <si>
-    <t>deductionForLegalReserve</t>
-  </si>
-  <si>
-    <t>deductionForEducationAndTrainingReserve</t>
-  </si>
-  <si>
     <t>retainedEarnings</t>
   </si>
   <si>
     <t>interestPayment</t>
   </si>
   <si>
-    <t>allocationToVoluntaryReserves</t>
-  </si>
-  <si>
-    <t>totalOrganisationRefunds</t>
-  </si>
-  <si>
-    <t>lossTreatmentLiabilities</t>
-  </si>
-  <si>
-    <t>lossTreatmentLossesGeneratedByMembers</t>
-  </si>
-  <si>
     <t>allocatioOfProfitsIndivisiblesReserves</t>
   </si>
   <si>
-    <t>deliversRefunds</t>
-  </si>
-  <si>
-    <t>appliesOtherDeduction</t>
-  </si>
-  <si>
     <t>BOARD ID</t>
   </si>
   <si>
@@ -322,6 +283,42 @@
   </si>
   <si>
     <t>value</t>
+  </si>
+  <si>
+    <t>profitsNonMemberyResults</t>
+  </si>
+  <si>
+    <t>profitsExtraEntityResults</t>
+  </si>
+  <si>
+    <t>allocationForLegalReserve</t>
+  </si>
+  <si>
+    <t>allocationForEducationAndTrainingReserve</t>
+  </si>
+  <si>
+    <t>treatmentOfLiabilitiesDebts</t>
+  </si>
+  <si>
+    <t>treatmentOfLiabilitiesLosses</t>
+  </si>
+  <si>
+    <t>distributionOfReturns</t>
+  </si>
+  <si>
+    <t>otherDeduction</t>
+  </si>
+  <si>
+    <t>amountOfRefunds</t>
+  </si>
+  <si>
+    <t>typeOfEntity</t>
+  </si>
+  <si>
+    <t>entityName</t>
+  </si>
+  <si>
+    <t>entityURL</t>
   </si>
 </sst>
 </file>
@@ -356,18 +353,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -493,7 +484,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -512,6 +502,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -861,15 +852,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:B5"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" style="10" customWidth="1"/>
     <col min="2" max="2" width="52.140625" customWidth="1"/>
     <col min="3" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
@@ -884,35 +875,38 @@
     </row>
     <row r="2" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>8</v>
-      </c>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -944,13 +938,13 @@
   <sheetData>
     <row r="1" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B1" s="21"/>
     </row>
     <row r="2" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B2" s="21"/>
     </row>
@@ -969,7 +963,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:B6"/>
+      <selection sqref="A1:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -980,38 +974,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
-        <v>11</v>
+      <c r="A1" s="33" t="s">
+        <v>8</v>
       </c>
       <c r="B1" s="21"/>
     </row>
     <row r="2" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
-        <v>12</v>
+      <c r="A2" s="33" t="s">
+        <v>9</v>
       </c>
       <c r="B2" s="21"/>
     </row>
     <row r="3" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B3" s="21"/>
     </row>
     <row r="4" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="B4" s="21"/>
     </row>
     <row r="5" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="B5" s="21"/>
     </row>
     <row r="6" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B6" s="21">
         <v>36303.279999999999</v>
@@ -1029,22 +1023,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:B11"/>
+    <sheetView topLeftCell="A10" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="50.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="B1" s="21">
         <v>5445.49</v>
@@ -1052,7 +1046,7 @@
     </row>
     <row r="2" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="B2" s="21">
         <v>3630.33</v>
@@ -1060,7 +1054,7 @@
     </row>
     <row r="3" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B3" s="21">
         <v>27227.46</v>
@@ -1068,51 +1062,39 @@
     </row>
     <row r="4" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B4" s="21"/>
     </row>
     <row r="5" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="B5" s="21"/>
     </row>
     <row r="6" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="B6" s="21"/>
     </row>
     <row r="7" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B7" s="21"/>
     </row>
     <row r="8" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="B8" s="21"/>
     </row>
     <row r="9" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="B9" s="21"/>
-    </row>
-    <row r="10" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="21"/>
-    </row>
-    <row r="11" spans="1:2" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -1128,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1147,22 +1129,22 @@
   <sheetData>
     <row r="1" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1175,124 +1157,124 @@
     </row>
     <row r="3" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="25">
+        <v>21</v>
+      </c>
+      <c r="B4" s="24">
         <v>3</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="25">
+        <v>21</v>
+      </c>
+      <c r="E4" s="24">
         <v>5</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="25">
+        <v>21</v>
+      </c>
+      <c r="H4" s="24">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>36</v>
+        <v>22</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
-      <c r="B8" s="24"/>
+      <c r="B8" s="23"/>
       <c r="D8" s="20" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
-      <c r="B9" s="24"/>
+      <c r="B9" s="23"/>
       <c r="D9" s="20" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
@@ -1429,33 +1411,33 @@
   <sheetData>
     <row r="1" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
       <c r="G2" s="1"/>
@@ -1465,25 +1447,25 @@
     </row>
     <row r="3" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B3" s="21">
         <v>2018</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E3" s="21">
         <v>2018</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H3" s="21">
         <v>2018</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K3" s="21">
         <v>2018</v>
@@ -1491,28 +1473,28 @@
     </row>
     <row r="4" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B4" s="21">
         <v>2020</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="20" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E4" s="21">
         <v>2020</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="20" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H4" s="21">
         <v>2020</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="20" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="K4" s="21">
         <v>2020</v>
@@ -1520,85 +1502,85 @@
     </row>
     <row r="5" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="20" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="20" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="20" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K5" s="21" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>55</v>
+        <v>41</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>42</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>56</v>
+        <v>41</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>43</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="27"/>
+        <v>41</v>
+      </c>
+      <c r="H6" s="26"/>
       <c r="I6" s="10"/>
       <c r="J6" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="K6" s="27"/>
+        <v>41</v>
+      </c>
+      <c r="K6" s="26"/>
     </row>
     <row r="7" spans="1:11" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>29</v>
+        <v>44</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>16</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>29</v>
+        <v>44</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>16</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>29</v>
+        <v>44</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>16</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" s="27" t="s">
-        <v>58</v>
+        <v>44</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -1629,28 +1611,28 @@
     </row>
     <row r="10" spans="1:11" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.2">
@@ -1668,28 +1650,28 @@
     </row>
     <row r="12" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B12" s="21">
         <v>2018</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="20" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E12" s="21">
         <v>2018</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="20" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H12" s="21">
         <v>2018</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="20" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K12" s="21">
         <v>2018</v>
@@ -1697,28 +1679,28 @@
     </row>
     <row r="13" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B13" s="21">
         <v>2020</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="20" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E13" s="21">
         <v>2020</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="20" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H13" s="21">
         <v>2020</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="20" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="K13" s="21">
         <v>2020</v>
@@ -1726,82 +1708,82 @@
     </row>
     <row r="14" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="20" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="20" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="20" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>58</v>
+        <v>41</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>45</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>58</v>
+        <v>41</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>45</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="27" t="s">
-        <v>58</v>
+        <v>41</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>45</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="K15" s="27" t="s">
-        <v>58</v>
+        <v>41</v>
+      </c>
+      <c r="K15" s="26" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="27"/>
+        <v>44</v>
+      </c>
+      <c r="B16" s="26"/>
       <c r="C16" s="10"/>
       <c r="D16" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="27"/>
+        <v>44</v>
+      </c>
+      <c r="E16" s="26"/>
       <c r="F16" s="10"/>
       <c r="G16" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" s="27"/>
+        <v>44</v>
+      </c>
+      <c r="H16" s="26"/>
       <c r="I16" s="10"/>
       <c r="J16" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="K16" s="27"/>
+        <v>44</v>
+      </c>
+      <c r="K16" s="26"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
@@ -1831,22 +1813,22 @@
     </row>
     <row r="19" spans="1:11" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="5"/>
@@ -1866,19 +1848,19 @@
     </row>
     <row r="21" spans="1:11" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B21" s="21">
         <v>2018</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E21" s="21">
         <v>2018</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H21" s="21">
         <v>2018</v>
@@ -1888,19 +1870,19 @@
     </row>
     <row r="22" spans="1:11" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B22" s="21">
         <v>2020</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E22" s="21">
         <v>2020</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H22" s="21">
         <v>2020</v>
@@ -1910,63 +1892,63 @@
     </row>
     <row r="23" spans="1:11" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>63</v>
+        <v>41</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>50</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>63</v>
+        <v>41</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>50</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="H24" s="27" t="s">
-        <v>63</v>
+        <v>41</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>50</v>
       </c>
       <c r="J24" s="4"/>
-      <c r="K24" s="30"/>
+      <c r="K24" s="29"/>
     </row>
     <row r="25" spans="1:11" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="27"/>
+        <v>44</v>
+      </c>
+      <c r="B25" s="26"/>
       <c r="D25" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="27"/>
+        <v>44</v>
+      </c>
+      <c r="E25" s="26"/>
       <c r="G25" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="H25" s="27"/>
+        <v>44</v>
+      </c>
+      <c r="H25" s="26"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="30"/>
+      <c r="K25" s="29"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
@@ -2222,8 +2204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2241,22 +2223,22 @@
   <sheetData>
     <row r="1" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>42</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>56</v>
+        <v>51</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>43</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>65</v>
+        <v>51</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2265,110 +2247,110 @@
     </row>
     <row r="3" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>66</v>
+        <v>17</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>53</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>67</v>
+        <v>17</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>54</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="31" t="s">
-        <v>68</v>
+        <v>17</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="31"/>
+        <v>56</v>
+      </c>
+      <c r="B4" s="30"/>
       <c r="D4" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="31"/>
+        <v>56</v>
+      </c>
+      <c r="E4" s="30"/>
       <c r="G4" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" s="31"/>
+        <v>56</v>
+      </c>
+      <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>71</v>
+        <v>57</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>58</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>71</v>
+        <v>57</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>58</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="31" t="s">
-        <v>71</v>
+        <v>57</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="31"/>
+        <v>59</v>
+      </c>
+      <c r="B6" s="30"/>
       <c r="D6" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="31"/>
+        <v>59</v>
+      </c>
+      <c r="E6" s="30"/>
       <c r="G6" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" s="31"/>
+        <v>59</v>
+      </c>
+      <c r="H6" s="30"/>
     </row>
     <row r="7" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>29</v>
+        <v>60</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>16</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>29</v>
+        <v>60</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>16</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>29</v>
+        <v>60</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>75</v>
+        <v>61</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>62</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>76</v>
+        <v>61</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>63</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>77</v>
+        <v>61</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="10" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2381,110 +2363,110 @@
     </row>
     <row r="12" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>78</v>
+        <v>17</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>65</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>79</v>
+        <v>17</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="31" t="s">
-        <v>80</v>
+        <v>17</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="31"/>
+        <v>56</v>
+      </c>
+      <c r="B13" s="30"/>
       <c r="D13" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="31"/>
+        <v>56</v>
+      </c>
+      <c r="E13" s="30"/>
       <c r="G13" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="31"/>
+        <v>56</v>
+      </c>
+      <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>81</v>
+        <v>57</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>68</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>81</v>
+        <v>57</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>68</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" s="31" t="s">
-        <v>71</v>
+        <v>57</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="31"/>
+        <v>92</v>
+      </c>
+      <c r="B15" s="30"/>
       <c r="D15" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="31"/>
+        <v>92</v>
+      </c>
+      <c r="E15" s="30"/>
       <c r="G15" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="H15" s="31"/>
+        <v>92</v>
+      </c>
+      <c r="H15" s="30"/>
     </row>
     <row r="16" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>45</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>45</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="H16" s="31" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>82</v>
+        <v>61</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>69</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>83</v>
+        <v>61</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>70</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" s="31" t="s">
-        <v>84</v>
+        <v>61</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="10" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2497,107 +2479,107 @@
     </row>
     <row r="20" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>85</v>
+        <v>17</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>72</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>86</v>
+        <v>17</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>73</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>87</v>
+        <v>17</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="31"/>
+        <v>56</v>
+      </c>
+      <c r="B21" s="30"/>
       <c r="D21" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="31"/>
+        <v>56</v>
+      </c>
+      <c r="E21" s="30"/>
       <c r="G21" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="H21" s="31"/>
+        <v>56</v>
+      </c>
+      <c r="H21" s="30"/>
     </row>
     <row r="22" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>71</v>
+        <v>57</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>58</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>71</v>
+        <v>57</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>58</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="H22" s="31" t="s">
-        <v>71</v>
+        <v>57</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="31"/>
+        <v>92</v>
+      </c>
+      <c r="B23" s="30"/>
       <c r="D23" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="31"/>
+        <v>92</v>
+      </c>
+      <c r="E23" s="30"/>
       <c r="G23" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="H23" s="31"/>
+        <v>92</v>
+      </c>
+      <c r="H23" s="30"/>
     </row>
     <row r="24" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>45</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="31" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>45</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="H24" s="31" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>88</v>
+        <v>61</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>75</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>89</v>
+        <v>61</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>76</v>
       </c>
       <c r="G26" s="4"/>
-      <c r="H26" s="32"/>
+      <c r="H26" s="31"/>
     </row>
     <row r="27" spans="1:8" s="10" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11"/>
@@ -2605,79 +2587,79 @@
       <c r="D27" s="11"/>
       <c r="E27" s="17"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="33"/>
+      <c r="H27" s="32"/>
     </row>
     <row r="28" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="31" t="s">
-        <v>90</v>
+        <v>17</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>77</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="31" t="s">
-        <v>91</v>
+        <v>17</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>78</v>
       </c>
       <c r="G28" s="4"/>
-      <c r="H28" s="32"/>
+      <c r="H28" s="31"/>
     </row>
     <row r="29" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="31"/>
+        <v>56</v>
+      </c>
+      <c r="B29" s="30"/>
       <c r="D29" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="31"/>
+        <v>56</v>
+      </c>
+      <c r="E29" s="30"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="32"/>
+      <c r="H29" s="31"/>
     </row>
     <row r="30" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" s="31" t="s">
-        <v>71</v>
+        <v>57</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>58</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30" s="31" t="s">
-        <v>71</v>
+        <v>57</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>58</v>
       </c>
       <c r="G30" s="4"/>
-      <c r="H30" s="32"/>
+      <c r="H30" s="31"/>
     </row>
     <row r="31" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" s="31"/>
+        <v>92</v>
+      </c>
+      <c r="B31" s="30"/>
       <c r="D31" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="31"/>
+        <v>92</v>
+      </c>
+      <c r="E31" s="30"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="32"/>
+      <c r="H31" s="31"/>
     </row>
     <row r="32" spans="1:8" s="10" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B32" s="31" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>50</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E32" s="31" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>50</v>
       </c>
       <c r="G32" s="4"/>
-      <c r="H32" s="32"/>
+      <c r="H32" s="31"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
@@ -2902,7 +2884,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2914,10 +2896,10 @@
   <sheetData>
     <row r="1" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
@@ -2932,10 +2914,10 @@
     </row>
     <row r="3" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="2"/>
@@ -2946,7 +2928,7 @@
     </row>
     <row r="4" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B4" s="21">
         <v>5000</v>
